--- a/Concurrent Analysis.xlsx
+++ b/Concurrent Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaede\OneDrive\Desktop\School (Active)\Parallel and Distributed Processes\Projects\Maze Gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaede\OneDrive\Desktop\School (Active)\Parallel and Distributed Processes\Projects\Maze Gen\COP-4520-MAZE-GEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25675973-B79F-4682-A438-98A15815D290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA195F6-1803-41C1-9E25-C151DF295C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EA6E26C9-D4F1-49CA-8A7F-66D007BD49E6}"/>
+    <workbookView xWindow="5064" yWindow="792" windowWidth="17280" windowHeight="8964" xr2:uid="{EA6E26C9-D4F1-49CA-8A7F-66D007BD49E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="5">
   <si>
     <t>Threads</t>
   </si>
@@ -2783,20 +2783,6 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{620230B0-8881-44A9-BEB4-04FBE31726A5}" name="Table1171814" displayName="Table1171814" ref="N22:R27" totalsRowShown="0">
-  <autoFilter ref="N22:R27" xr:uid="{620230B0-8881-44A9-BEB4-04FBE31726A5}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2B3EBAE8-EB33-4074-A055-306D15E6DEBF}" name="Threads"/>
-    <tableColumn id="2" xr3:uid="{E8CE6E88-9C01-48D5-9B9D-19E4BC64DCB5}" name="Mean"/>
-    <tableColumn id="3" xr3:uid="{BE4361F3-4E70-404F-A68E-37D380610DE6}" name="Stdev"/>
-    <tableColumn id="4" xr3:uid="{DDF96E56-7B6B-4918-B32A-57FC1E65C57D}" name="min"/>
-    <tableColumn id="5" xr3:uid="{D2933C24-CF16-4066-B7F4-6A5D45D73312}" name="max"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4D93453-55D7-4095-8EB6-9A2E7776E0E8}" name="Table13" displayName="Table13" ref="H1:L6" totalsRowShown="0">
   <autoFilter ref="H1:L6" xr:uid="{C4D93453-55D7-4095-8EB6-9A2E7776E0E8}"/>
@@ -3208,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433FE99E-B264-4ABA-B854-FC77403C59F7}">
   <dimension ref="A1:R300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3221,6 +3207,14 @@
       <c r="A1">
         <v>3519.1079</v>
       </c>
+      <c r="C1">
+        <f>AVERAGE(A1:A300)</f>
+        <v>3695.8916936666674</v>
+      </c>
+      <c r="D1">
+        <f>_xlfn.STDEV.P(A1:A300)</f>
+        <v>596.34640637350731</v>
+      </c>
       <c r="G1">
         <v>10</v>
       </c>
@@ -3262,6 +3256,14 @@
       <c r="A2">
         <v>2971.0893000000001</v>
       </c>
+      <c r="C2">
+        <f>MIN(A1:A300)</f>
+        <v>2562.1185999999998</v>
+      </c>
+      <c r="D2">
+        <f>MAX(A1:A300)</f>
+        <v>6266.0221000000001</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -3902,24 +3904,6 @@
       <c r="L22" t="s">
         <v>4</v>
       </c>
-      <c r="M22">
-        <v>1000</v>
-      </c>
-      <c r="N22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -3940,21 +3924,6 @@
       <c r="L23">
         <v>2208.9699999999998</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>957.95</v>
-      </c>
-      <c r="P23">
-        <v>235.03</v>
-      </c>
-      <c r="Q23">
-        <v>607.54</v>
-      </c>
-      <c r="R23">
-        <v>2208.9699999999998</v>
-      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -3975,21 +3944,6 @@
       <c r="L24">
         <v>1917.6</v>
       </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <v>858.57</v>
-      </c>
-      <c r="P24">
-        <v>195.24</v>
-      </c>
-      <c r="Q24">
-        <v>538.66999999999996</v>
-      </c>
-      <c r="R24">
-        <v>1917.6</v>
-      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -4010,21 +3964,6 @@
       <c r="L25">
         <v>1850.33</v>
       </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>1043.79</v>
-      </c>
-      <c r="P25">
-        <v>216.87</v>
-      </c>
-      <c r="Q25">
-        <v>662.96</v>
-      </c>
-      <c r="R25">
-        <v>1850.33</v>
-      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -4045,21 +3984,6 @@
       <c r="L26">
         <v>2626.45</v>
       </c>
-      <c r="N26">
-        <v>4</v>
-      </c>
-      <c r="O26">
-        <v>1279.5899999999999</v>
-      </c>
-      <c r="P26">
-        <v>304.26</v>
-      </c>
-      <c r="Q26">
-        <v>781.67</v>
-      </c>
-      <c r="R26">
-        <v>2626.45</v>
-      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -4080,21 +4004,6 @@
       <c r="L27">
         <v>3287.61</v>
       </c>
-      <c r="N27">
-        <v>5</v>
-      </c>
-      <c r="O27">
-        <v>1452.28</v>
-      </c>
-      <c r="P27">
-        <v>354.97</v>
-      </c>
-      <c r="Q27">
-        <v>868.5</v>
-      </c>
-      <c r="R27">
-        <v>3287.61</v>
-      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -4547,27 +4456,11 @@
       <c r="A43">
         <v>3448.5417000000002</v>
       </c>
-      <c r="C43">
-        <f>AVERAGE(A1:A300)</f>
-        <v>3695.8916936666674</v>
-      </c>
-      <c r="D43">
-        <f>_xlfn.STDEV.P(A1:A300)</f>
-        <v>596.34640637350731</v>
-      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3682.44</v>
       </c>
-      <c r="C44">
-        <f>MIN(A1:A300)</f>
-        <v>2562.1185999999998</v>
-      </c>
-      <c r="D44">
-        <f>MAX(A1:A300)</f>
-        <v>6266.0221000000001</v>
-      </c>
       <c r="G44">
         <v>100</v>
       </c>
@@ -6149,7 +6042,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="15">
+  <tableParts count="14">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -6164,7 +6057,6 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
-    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
